--- a/data/trans_dic/P32A-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P32A-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/P32A-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P32A-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>1,49%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1,11%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1,3%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>2,86%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>3,48%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,06%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,84%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,92%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,8%</t>
         </is>
       </c>
     </row>
@@ -724,22 +724,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,86</t>
+          <t>0,0; 8,43</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,66</t>
+          <t>0,0; 5,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,31</t>
+          <t>0,0; 7,02</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,48</t>
+          <t>0,0; 9,71</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 7,32</t>
+          <t>0,0; 18,64</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -764,22 +764,22 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,94</t>
+          <t>0,0; 6,74</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,98</t>
+          <t>0,0; 6,63</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,58</t>
+          <t>0,0; 4,34</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,96</t>
+          <t>0,0; 6,51</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>1,03%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1,57%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1,61%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1,35%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,53%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,73%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,74%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,58%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,24%</t>
         </is>
       </c>
     </row>
@@ -864,22 +864,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>0,27; 3,06</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>0,73; 3,23</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>0,61; 3,48</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,63</t>
+          <t>0,47; 3,35</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -889,37 +889,37 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,38</t>
+          <t>0,63; 5,81</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,24</t>
+          <t>0,0; 5,73</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,92</t>
+          <t>0,0; 4,12</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>0,19; 2,17</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>0,78; 3,04</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>0,66; 3,14</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>0,45; 2,51</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>0,86%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>2,04%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>2,94%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>1,73%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,35%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,94%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,74%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,58%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,22%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,04%</t>
         </is>
       </c>
     </row>
@@ -1004,22 +1004,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>0,33; 2,03</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>0,96; 3,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>1,71; 4,58</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>0,77; 3,07</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1029,37 +1029,37 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>0,0; 1,69</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,62</t>
+          <t>0,29; 2,84</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>1,1; 6,01</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>0,22; 1,28</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>0,73; 2,77</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>1,37; 3,32</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>1,2; 3,23</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>2,3%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>3,5%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1,99%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>1,29%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0,71%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,42%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,85%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,41%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,44%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,45%</t>
         </is>
       </c>
     </row>
@@ -1144,27 +1144,27 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>1,1; 4,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,46</t>
+          <t>1,92; 5,9</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>0,93; 3,77</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,64</t>
+          <t>0,43; 3,04</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,41</t>
+          <t>0,0; 3,62</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1174,32 +1174,32 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,88</t>
+          <t>0,0; 2,52</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,8</t>
+          <t>0,12; 5,75</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>0,87; 3,3</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>1,4; 4,08</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>0,65; 2,54</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>0,58; 3,19</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,49%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,08%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,4%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,43%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,67%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,04%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,26%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,07%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,56%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,27%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,76%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,88%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>0,16; 1,32</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>1,85; 4,79</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>0,64; 2,73</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>1,32; 4,15</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,65</t>
+          <t>0,0; 2,29</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,56</t>
+          <t>0,25; 3,38</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>0,94; 4,21</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,46</t>
+          <t>0,43; 2,36</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>0,21; 1,29</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>1,42; 3,35</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>1,03; 2,78</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>1,15; 3,01</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,07%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,54%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,8%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,33%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,35%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,57%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,83%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,97%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,76%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,71%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>0,66; 1,58</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>1,92; 3,47</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>1,39; 2,67</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>1,23; 2,52</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>0,1; 0,9</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>0,37; 1,65</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>0,73; 2,16</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>0,89; 2,79</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>0,55; 1,28</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>1,5; 2,61</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>1,29; 2,28</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>1,28; 2,37</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P32A-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P32A-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,22 +656,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,49%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,11%</t>
+          <t>1,5%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,3%</t>
+          <t>1,55%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,86%</t>
+          <t>1,5%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,37 +681,37 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,48%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,24%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,06%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>1,84%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,92%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>1,8%</t>
+          <t>1,27%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,43</t>
+          <t>0,24; 2,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,65</t>
+          <t>0,64; 3,05</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,02</t>
+          <t>0,56; 3,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,71</t>
+          <t>0,59; 2,99</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 5,78</t>
+          <t>0; 1,05</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,64</t>
+          <t>0,58; 5,54</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 4,9</t>
+          <t>0,0; 4,33</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 4,34</t>
+          <t>0,0; 2,93</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,74</t>
+          <t>0,18; 1,97</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,63</t>
+          <t>0,9; 3,15</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,34</t>
+          <t>0,7; 2,78</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,51</t>
+          <t>0,56; 2,36</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,22 +796,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,03%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,57%</t>
+          <t>2,04%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,61%</t>
+          <t>2,94%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,35%</t>
+          <t>1,66%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -821,37 +821,37 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>2,16%</t>
+          <t>0,35%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>1,53%</t>
+          <t>0,94%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>1,0%</t>
+          <t>2,76%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,73%</t>
+          <t>0,58%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>1,74%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>1,58%</t>
+          <t>2,22%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>1,24%</t>
+          <t>1,99%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,27; 3,06</t>
+          <t>0,33; 2,03</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,73; 3,23</t>
+          <t>0,96; 3,9</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,61; 3,48</t>
+          <t>1,71; 4,58</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,47; 3,35</t>
+          <t>0,74; 2,95</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,27</t>
+          <t>0; 0,73</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,63; 5,81</t>
+          <t>0,0; 1,69</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,73</t>
+          <t>0,29; 2,84</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,12</t>
+          <t>1,12; 6,05</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,19; 2,17</t>
+          <t>0,22; 1,28</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,78; 3,04</t>
+          <t>0,73; 2,77</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,66; 3,14</t>
+          <t>1,37; 3,32</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,45; 2,51</t>
+          <t>1,17; 3,15</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,86%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,04%</t>
+          <t>3,5%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,94%</t>
+          <t>1,99%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,73%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>0,71%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>0,35%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,94%</t>
+          <t>0,42%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,74%</t>
+          <t>1,12%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,58%</t>
+          <t>1,85%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>2,41%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>2,22%</t>
+          <t>1,44%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>2,04%</t>
+          <t>1,19%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,33; 2,03</t>
+          <t>1,1; 4,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,96; 3,9</t>
+          <t>1,92; 5,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,71; 4,58</t>
+          <t>0,93; 3,77</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,77; 3,07</t>
+          <t>0,44; 3,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,73</t>
+          <t>0,0; 3,62</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,69</t>
+          <t>0; 1,05</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,29; 2,84</t>
+          <t>0,0; 2,52</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,1; 6,01</t>
+          <t>0,0; 3,98</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,22; 1,28</t>
+          <t>0,87; 3,3</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,73; 2,77</t>
+          <t>1,4; 4,08</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,37; 3,32</t>
+          <t>0,65; 2,54</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,2; 3,23</t>
+          <t>0,35; 2,54</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,3%</t>
+          <t>0,49%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,5%</t>
+          <t>3,08%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,99%</t>
+          <t>1,4%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,29%</t>
+          <t>2,49%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,71%</t>
+          <t>0,67%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,04%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,42%</t>
+          <t>2,26%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>1,64%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>1,85%</t>
+          <t>0,56%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>2,41%</t>
+          <t>2,27%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>1,44%</t>
+          <t>1,76%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>1,45%</t>
+          <t>1,93%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,1; 4,35</t>
+          <t>0,16; 1,32</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,92; 5,9</t>
+          <t>1,85; 4,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,93; 3,77</t>
+          <t>0,64; 2,73</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,43; 3,04</t>
+          <t>1,34; 4,3</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,62</t>
+          <t>0,0; 2,29</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,05</t>
+          <t>0,25; 3,38</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,52</t>
+          <t>0,94; 4,21</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,12; 5,75</t>
+          <t>0,44; 2,35</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,87; 3,3</t>
+          <t>0,21; 1,29</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,4; 4,08</t>
+          <t>1,42; 3,35</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,65; 2,54</t>
+          <t>1,03; 2,78</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,58; 3,19</t>
+          <t>1,17; 3,1</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,52 +1216,52 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,49%</t>
+          <t>1,07%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,08%</t>
+          <t>2,54%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,4%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,43%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,67%</t>
+          <t>0,33%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,04%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>2,26%</t>
+          <t>1,35%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>1,38%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,56%</t>
+          <t>0,83%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>2,27%</t>
+          <t>1,97%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>1,88%</t>
+          <t>1,62%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,16; 1,32</t>
+          <t>0,66; 1,58</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,85; 4,79</t>
+          <t>1,92; 3,47</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,64; 2,73</t>
+          <t>1,39; 2,67</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,32; 4,15</t>
+          <t>1,22; 2,5</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,29</t>
+          <t>0,1; 0,9</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,25; 3,38</t>
+          <t>0,37; 1,65</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,94; 4,21</t>
+          <t>0,73; 2,16</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,43; 2,36</t>
+          <t>0,61; 2,36</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,21; 1,29</t>
+          <t>0,55; 1,28</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,42; 3,35</t>
+          <t>1,5; 2,61</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,03; 2,78</t>
+          <t>1,29; 2,28</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,15; 3,01</t>
+          <t>1,15; 2,22</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>1,07%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>2,54%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>2,0%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>1,8%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>0,33%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>0,86%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>1,35%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>1,57%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>0,83%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>1,97%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>1,76%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>1,71%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>0,66; 1,58</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>1,92; 3,47</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>1,39; 2,67</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>1,23; 2,52</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>0,1; 0,9</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>0,37; 1,65</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>0,73; 2,16</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>0,89; 2,79</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>0,55; 1,28</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>1,5; 2,61</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>1,29; 2,28</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>1,28; 2,37</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P32A-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P32A-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,22 +725,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,24; 2,68</t>
+          <t>0,24; 2,77</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,64; 3,05</t>
+          <t>0,6; 2,79</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,56; 3,32</t>
+          <t>0,56; 3,26</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,59; 2,99</t>
+          <t>0,61; 3,34</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,37 +750,37 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,58; 5,54</t>
+          <t>0,59; 5,58</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,33</t>
+          <t>0,0; 3,75</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,93</t>
+          <t>0,0; 3,12</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,18; 1,97</t>
+          <t>0,17; 1,96</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,9; 3,15</t>
+          <t>0,98; 3,05</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,7; 2,78</t>
+          <t>0,71; 2,74</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,56; 2,36</t>
+          <t>0,61; 2,42</t>
         </is>
       </c>
     </row>
@@ -864,22 +865,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,33; 2,03</t>
+          <t>0,34; 2,09</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,96; 3,9</t>
+          <t>0,96; 3,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,71; 4,58</t>
+          <t>1,62; 4,7</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,74; 2,95</t>
+          <t>0,82; 3,14</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -889,37 +890,37 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,69</t>
+          <t>0,0; 1,74</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,29; 2,84</t>
+          <t>0,29; 2,46</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,12; 6,05</t>
+          <t>1,18; 6,05</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,22; 1,28</t>
+          <t>0,22; 1,3</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,73; 2,77</t>
+          <t>0,73; 2,83</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,37; 3,32</t>
+          <t>1,35; 3,34</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,17; 3,15</t>
+          <t>1,19; 3,29</t>
         </is>
       </c>
     </row>
@@ -1004,27 +1005,27 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,1; 4,35</t>
+          <t>0,88; 4,21</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,92; 5,9</t>
+          <t>1,88; 5,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,93; 3,77</t>
+          <t>0,97; 3,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,44; 3,0</t>
+          <t>0,37; 2,96</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,62</t>
+          <t>0,0; 3,96</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1034,32 +1035,32 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,52</t>
+          <t>0,0; 2,55</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,98</t>
+          <t>0,0; 4,03</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,87; 3,3</t>
+          <t>0,99; 3,48</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,4; 4,08</t>
+          <t>1,37; 4,09</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,65; 2,54</t>
+          <t>0,67; 2,64</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,35; 2,54</t>
+          <t>0,34; 2,75</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,16; 1,32</t>
+          <t>0,16; 1,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,85; 4,79</t>
+          <t>1,97; 4,77</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,64; 2,73</t>
+          <t>0,67; 2,82</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,34; 4,3</t>
+          <t>1,38; 4,25</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,29</t>
+          <t>0,0; 2,36</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,25; 3,38</t>
+          <t>0,25; 3,32</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,94; 4,21</t>
+          <t>0,97; 4,46</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,44; 2,35</t>
+          <t>0,49; 2,33</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,21; 1,29</t>
+          <t>0,21; 1,2</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,42; 3,35</t>
+          <t>1,51; 3,41</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,03; 2,78</t>
+          <t>1,04; 2,72</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,17; 3,1</t>
+          <t>1,21; 3,04</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,66; 1,58</t>
+          <t>0,69; 1,65</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,92; 3,47</t>
+          <t>1,86; 3,41</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,39; 2,67</t>
+          <t>1,36; 2,7</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,22; 2,5</t>
+          <t>1,27; 2,46</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,1; 0,9</t>
+          <t>0,1; 0,89</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,37; 1,65</t>
+          <t>0,38; 1,68</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,73; 2,16</t>
+          <t>0,75; 2,3</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,61; 2,36</t>
+          <t>0,61; 2,4</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,55; 1,28</t>
+          <t>0,55; 1,23</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,5; 2,61</t>
+          <t>1,44; 2,6</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,29; 2,28</t>
+          <t>1,32; 2,24</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,15; 2,22</t>
+          <t>1,15; 2,18</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población a la que le ha molestado que le criticasen la forma de beber</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>4867</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6372</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>6644</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>4976</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>4167</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>2303</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>1307</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>4867</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>10539</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>8947</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>6284</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>1073; 12163</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>2570; 11891</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>2414; 14002</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>2014; 11129</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1883</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1028; 9793</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6963</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4992</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>1077; 12142</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>5879; 18340</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>4379; 16851</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>3029; 11936</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>4994</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>12085</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>16896</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>7914</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1028</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>3031</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>5547</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>4994</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>13113</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>19927</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>13462</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>1960; 12172</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>5710; 22739</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>9322; 27015</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>3903; 14992</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2032</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5162</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>940; 7949</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>2366; 12152</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1906; 11182</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>6522; 25127</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>12164; 30008</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>8094; 22306</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>7613</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>16071</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>8447</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>4084</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>924</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>959</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>4110</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>8537</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>16071</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>9405</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>8194</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2921; 13929</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>8633; 27424</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>4098; 16124</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1182; 9521</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5157</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2178</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5855</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0; 14851</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>4589; 16049</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>9174; 27304</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>4390; 17243</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>2341; 18959</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>2614</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>17132</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>8025</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>11013</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>2035</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>3797</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>9191</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>3132</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>4650</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>20930</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>17216</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>14145</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>848; 6825</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>10978; 26596</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>3815; 16139</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>6119; 18792</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 7201</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>924; 12116</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>3960; 18133</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1408; 6723</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1760; 10029</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>13941; 31424</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>10149; 26689</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>8836; 22240</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>20089</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>51661</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>40012</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>27988</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>2959</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>8993</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>15484</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>14096</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>23048</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>60654</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>55495</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>42084</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>12904; 30978</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>37804; 69413</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>27273; 54016</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>19920; 38761</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>924; 7924</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>4015; 17596</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>8583; 26333</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>6208; 24462</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>15185; 34160</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>44321; 79962</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>41469; 70542</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>29711; 56615</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>